--- a/BE/routes/product.xlsx
+++ b/BE/routes/product.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/mern_an_ecommerce_website/fe/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/mern_an_ecommerce_website/BE/routes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C901E136-521A-BB44-90CD-CC23362DB64A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA5486-D048-974C-A99E-BB8974DE4D70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{0403D18B-05FB-B247-BA2C-D6158278CDFB}"/>
   </bookViews>
@@ -436,10 +436,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="55.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
